--- a/results/RandomForestClassifier_tpesearch-estimator_df.xlsx
+++ b/results/RandomForestClassifier_tpesearch-estimator_df.xlsx
@@ -507,17 +507,17 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f65bc25b8b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0eeb3a0&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=1,
                                         max_features='log2', min_samples_leaf=3,
-                                        min_samples_split=12, n_estimators=250,
+                                        min_samples_split=5, n_estimators=350,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f669c087970&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f99170fc070&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -527,11 +527,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 250, 'model__max_depth': 1, 'model__min_samples_split': 12, 'model__min_samples_leaf': 3, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 350, 'model__max_depth': 1, 'model__min_samples_split': 5, 'model__min_samples_leaf': 3, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5753415464375889</v>
+        <v>0.5701098397198141</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6789874551971326</v>
+        <v>0.6900503070862122</v>
       </c>
       <c r="H2" t="n">
         <v>0.4166666666666667</v>
@@ -563,83 +563,6 @@
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
-                ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        max_features='log2', min_samples_leaf=8,
-                                        min_samples_split=3,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 100, 'model__max_depth': 2, 'model__min_samples_split': 3, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.560948870306792</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7960883941943429</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5440917107583775</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -662,16 +585,17 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f6779a9fbb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e11b24f0&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        min_samples_leaf=8, min_samples_split=5,
-                                        n_estimators=150, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f6684338130&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                        min_samples_leaf=11,
+                                        min_samples_split=4, n_estimators=250,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0f28970&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -681,11 +605,89 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 150, 'model__max_depth': 2, 'model__min_samples_split': 5, 'model__min_samples_leaf': 8, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 250, 'model__max_depth': 2, 'model__min_samples_split': 4, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5575734726678326</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7117255504352279</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4207459207459207</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1010b20&gt;),
+                ('model',
+                 RandomForestClassifier(class_weight='balanced', max_depth=3,
+                                        max_features='log2', min_samples_leaf=8,
+                                        min_samples_split=10, n_estimators=200,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98642c3700&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 200, 'model__max_depth': 3, 'model__min_samples_split': 10, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5389354460319596</v>
+        <v>0.5377129631410155</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -696,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7642833072940601</v>
+        <v>0.8044708545557442</v>
       </c>
       <c r="H4" t="n">
         <v>0.5440579710144928</v>
@@ -741,9 +743,8 @@
                 ('selector', None),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        max_features='log2', min_samples_leaf=7,
-                                        min_samples_split=9, n_estimators=450,
-                                        random_state=42))])</t>
+                                        min_samples_leaf=2, min_samples_split=8,
+                                        n_estimators=450, random_state=42))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -758,11 +759,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 450, 'model__max_depth': 1, 'model__min_samples_split': 9, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 450, 'model__max_depth': 1, 'model__min_samples_split': 8, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5926449871153061</v>
+        <v>0.5971479110919143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -773,10 +774,10 @@
         <v>99</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7333838957458397</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.5440917107583775</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -785,7 +786,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0]</t>
+          <t>[0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0]</t>
         </is>
       </c>
     </row>
@@ -817,10 +818,9 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', None),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=10,
-                                        min_samples_leaf=12,
-                                        min_samples_split=6, n_estimators=300,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(class_weight='balanced', max_depth=1,
+                                        min_samples_leaf=5, min_samples_split=6,
+                                        n_estimators=300, random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -835,11 +835,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__max_depth': 10, 'model__min_samples_split': 6, 'model__min_samples_leaf': 12, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__max_depth': 1, 'model__min_samples_split': 6, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5966078345907395</v>
+        <v>0.5846973785700398</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7960883941943429</v>
+        <v>0.7531596350773623</v>
       </c>
       <c r="H6" t="n">
         <v>0.5440917107583775</v>

--- a/results/RandomForestClassifier_tpesearch-estimator_df.xlsx
+++ b/results/RandomForestClassifier_tpesearch-estimator_df.xlsx
@@ -500,24 +500,25 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'D...
+                                                   'Delta_OnAxis', 'Delta_PV',
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0eeb3a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ac049e220&gt;),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        max_features='log2', min_samples_leaf=3,
-                                        min_samples_split=5, n_estimators=350,
+                 RandomForestClassifier(class_weight='balanced', max_depth=7,
+                                        max_features='log2',
+                                        min_samples_leaf=10,
+                                        min_samples_split=4,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f99170fc070&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b63a70970&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -527,11 +528,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 350, 'model__max_depth': 1, 'model__min_samples_split': 5, 'model__min_samples_leaf': 3, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 100, 'model__max_depth': 7, 'model__min_samples_split': 4, 'model__min_samples_leaf': 10, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5701098397198141</v>
+        <v>0.6963074090325402</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -539,22 +540,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6900503070862122</v>
+        <v>0.7957935852548795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4555072463768116</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0]</t>
         </is>
       </c>
     </row>
@@ -563,162 +564,6 @@
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e11b24f0&gt;),
-                ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        min_samples_leaf=11,
-                                        min_samples_split=4, n_estimators=250,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0f28970&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 250, 'model__max_depth': 2, 'model__min_samples_split': 4, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5575734726678326</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7117255504352279</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4207459207459207</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'D...
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1010b20&gt;),
-                ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=3,
-                                        max_features='log2', min_samples_leaf=8,
-                                        min_samples_split=10, n_estimators=200,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98642c3700&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 200, 'model__max_depth': 3, 'model__min_samples_split': 10, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5377129631410155</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8044708545557442</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5440579710144928</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -742,12 +587,14 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', None),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        min_samples_leaf=2, min_samples_split=8,
-                                        n_estimators=450, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+                 RandomForestClassifier(class_weight='balanced', max_depth=10,
+                                        max_features='log2',
+                                        min_samples_leaf=10,
+                                        min_samples_split=5, n_estimators=250,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -759,42 +606,121 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 450, 'model__max_depth': 1, 'model__min_samples_split': 8, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5971479110919143</v>
-      </c>
-      <c r="E5" t="inlineStr">
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 250, 'model__max_depth': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6061936549115173</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Tree-Parzen Estimator</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7435179549604384</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5440917107583775</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0]</t>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8707576894223557</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5bc9a80ca0&gt;),
+                ('model',
+                 RandomForestClassifier(class_weight='balanced', max_depth=3,
+                                        max_features='log2',
+                                        min_samples_leaf=12,
+                                        min_samples_split=7, n_estimators=500,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b57780ee0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 500, 'model__max_depth': 3, 'model__min_samples_split': 7, 'model__min_samples_leaf': 12, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6369932965211602</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7415153788447112</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4085081585081585</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 1 1 0 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -818,12 +744,14 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', None),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        min_samples_leaf=5, min_samples_split=6,
-                                        n_estimators=300, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+                 RandomForestClassifier(class_weight='balanced', max_depth=8,
+                                        max_features='log2',
+                                        min_samples_leaf=10,
+                                        min_samples_split=5, n_estimators=450,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -835,11 +763,87 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__max_depth': 1, 'model__min_samples_split': 6, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 450, 'model__max_depth': 8, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'log2', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6199562632070371</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8482973229236015</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 1 0 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
+                ('model',
+                 RandomForestClassifier(class_weight='balanced', max_depth=10,
+                                        min_samples_leaf=2, n_estimators=400,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 400, 'model__max_depth': 10, 'model__min_samples_split': 2, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5846973785700398</v>
+        <v>0.566727759684416</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -850,19 +854,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7531596350773623</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5440917107583775</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 1]</t>
         </is>
       </c>
     </row>
